--- a/src/data/inputData.xlsx
+++ b/src/data/inputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Variable Name</t>
   </si>
@@ -26,22 +26,142 @@
     <t>Variable Value-02</t>
   </si>
   <si>
-    <t>Value_Username</t>
-  </si>
-  <si>
-    <t>selvamuthukumar.g@zucisystems.com</t>
-  </si>
-  <si>
-    <t>Value_Password</t>
-  </si>
-  <si>
-    <t>Selva@2000</t>
-  </si>
-  <si>
-    <t>Value_Product</t>
-  </si>
-  <si>
-    <t>Headset</t>
+    <t>appURL</t>
+  </si>
+  <si>
+    <t>https://nxt.patrix.com:8543/pat/</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>zuci</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>CaseNo_AddDocument</t>
+  </si>
+  <si>
+    <t>A1002WW00</t>
+  </si>
+  <si>
+    <t>C1000FR00</t>
+  </si>
+  <si>
+    <t>CaseNo_PreviewDocument</t>
+  </si>
+  <si>
+    <t>P1194US00</t>
+  </si>
+  <si>
+    <t>TM1193A200</t>
+  </si>
+  <si>
+    <t>Case type</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Application type</t>
+  </si>
+  <si>
+    <t>With</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>Catchword</t>
+  </si>
+  <si>
+    <t>Test Trial</t>
+  </si>
+  <si>
+    <t>Test Catchword</t>
+  </si>
+  <si>
+    <t>Service level</t>
+  </si>
+  <si>
+    <t>Nor</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Document path_AddDocument</t>
+  </si>
+  <si>
+    <t>\src\data\TM1193IN00 Classes.pdf</t>
+  </si>
+  <si>
+    <t>\src\data\Test Document.txt</t>
+  </si>
+  <si>
+    <t>Document type_AddDocument</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>Negative case search</t>
+  </si>
+  <si>
+    <t>P00000</t>
+  </si>
+  <si>
+    <t>@0000000</t>
+  </si>
+  <si>
+    <t>Create_CaseNo</t>
+  </si>
+  <si>
+    <t>P1279US00</t>
+  </si>
+  <si>
+    <t>D1074IN00</t>
+  </si>
+  <si>
+    <t>CaseNo</t>
+  </si>
+  <si>
+    <t>D1049IN00</t>
+  </si>
+  <si>
+    <t>D1053IN00</t>
+  </si>
+  <si>
+    <t>D1077IN00</t>
+  </si>
+  <si>
+    <t>P1281US00</t>
   </si>
 </sst>
 </file>
@@ -54,7 +174,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -79,14 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,6 +215,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,9 +236,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,23 +274,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,54 +306,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,25 +344,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,145 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,25 +545,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,32 +574,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,18 +612,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,137 +662,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,53 +1113,221 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1428571428571" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.1428571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" customWidth="true" style="1" width="35.1428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="28.7142857142857" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="I1" s="1">
         <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1036,21 +1339,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.1428571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
